--- a/biology/Zoologie/Agrias_narcissus/Agrias_narcissus.xlsx
+++ b/biology/Zoologie/Agrias_narcissus/Agrias_narcissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrias narcissus est une espèce d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae et du genre Agrias.
 </t>
@@ -511,13 +523,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Agrias narcissus a été décrit par l'entomologiste allemand Otto Staudinger en 1885 [1].
-Noms vernaculaires
-Agrias narcissus se nomme Narcissus Agrias en anglais.
-Taxinomie
-Sous-espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias narcissus a été décrit par l'entomologiste allemand Otto Staudinger en 1885 .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias narcissus se nomme Narcissus Agrias en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous-espèces.
 Agrias narcissus narcissus; présent au Brésil, au Surinam et en Guyane.
 Synonymie pour cette sous-espèce
 Agrias narcissus obidonus (Lathy, 1924)
@@ -538,70 +622,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agrias_narcissus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias narcissus est un papillon aux ailes antérieures à bord costal bossu, apex angulaire, bord externe concave et bord externe aux ailes postérieures légèrement festonné. 
-Le dessus est bleu avec aux ailes antérieures une large bande rouge du milieu du bord costal à l'angle externe et l'apex est noirci, alors que les ailes postérieures sont bleue bordées de noir.
-Le revers est jaune vert avec aux ailes antérieures la présence ou non d'une bande orange suivant les sous-espèces et aux ailes postérieure une ligne submarginale de gros ocelles centrés de noir pupillé d'un chevron vert et une ornementation de lignes sinueuses de tirets noirs[3]..
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agrias_narcissus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur biologie est encore mal connue.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -623,16 +643,156 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias narcissus est un papillon aux ailes antérieures à bord costal bossu, apex angulaire, bord externe concave et bord externe aux ailes postérieures légèrement festonné. 
+Le dessus est bleu avec aux ailes antérieures une large bande rouge du milieu du bord costal à l'angle externe et l'apex est noirci, alors que les ailes postérieures sont bleue bordées de noir.
+Le revers est jaune vert avec aux ailes antérieures la présence ou non d'une bande orange suivant les sous-espèces et aux ailes postérieure une ligne submarginale de gros ocelles centrés de noir pupillé d'un chevron vert et une ornementation de lignes sinueuses de tirets noirs..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur biologie est encore mal connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias narcissus est présent au Venezuela,  au Brésil, au Surinam et en Guyane[2],[3].
-Biotope
-Agrias narcissus réside dans la canopée dont il ne descend que rarement[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias narcissus est présent au Venezuela,  au Brésil, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias narcissus réside dans la canopée dont il ne descend que rarement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_narcissus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Agrias narcissus, sur Wikimedia CommonsAgrias narcissus, sur Wikispecies
 </t>
